--- a/tabular/eve/ecv_reference_feature_locations.xlsx
+++ b/tabular/eve/ecv_reference_feature_locations.xlsx
@@ -1,29 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/eve/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE08034-9191-7549-8E11-CB18F2891E18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="980" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>featureName</t>
   </si>
@@ -81,11 +87,47 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>REF_ECV_Serpentes</t>
+  </si>
+  <si>
+    <t>REF_ECV_Passeriformes</t>
+  </si>
+  <si>
+    <t>REF_ECV_Psittaciformes</t>
+  </si>
+  <si>
+    <t>REF_ECV_Actinopterygii</t>
+  </si>
+  <si>
+    <t>REF_ECV_Varroa</t>
+  </si>
+  <si>
+    <t>REF_ECV_Eptatretus</t>
+  </si>
+  <si>
+    <t>REF_ECV_Loxosceles</t>
+  </si>
+  <si>
+    <t>REF_ECV_Modiolus</t>
+  </si>
+  <si>
+    <t>REF_ECV_Neolamprologus</t>
+  </si>
+  <si>
+    <t>REF_ECV_Parhyale</t>
+  </si>
+  <si>
+    <t>REF_ECV_Salmo</t>
+  </si>
+  <si>
+    <t>REF_ECV_Tropileilaps</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -130,18 +172,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4323,6 +4368,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4648,14 +4696,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1459"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H2" sqref="A1:H2"/>
+      <selection activeCell="E16" sqref="E16:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
     <col min="2" max="3" width="12.33203125" customWidth="1"/>
@@ -4667,7 +4715,7 @@
     <col min="9" max="9" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -4693,7 +4741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>7</v>
       </c>
@@ -4719,957 +4767,1015 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
       <c r="E13" s="9"/>
     </row>
-    <row r="27" spans="2:5">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="10"/>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="10"/>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="10"/>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="10"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="10"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="10"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="10"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="10"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="10"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="10"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="10"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="10"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="10"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="10"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="10"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="10"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="10"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="10"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="10"/>
     </row>
-    <row r="49" spans="2:6">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="2:6">
+    <row r="50" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="2:6">
+    <row r="51" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="2:6">
+    <row r="52" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="10"/>
     </row>
-    <row r="53" spans="2:6">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="10"/>
     </row>
-    <row r="54" spans="2:6" ht="14" customHeight="1">
+    <row r="54" spans="2:6" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="10"/>
     </row>
-    <row r="55" spans="2:6">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="2:6">
+    <row r="56" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="2:6">
+    <row r="57" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="10"/>
     </row>
-    <row r="58" spans="2:6">
+    <row r="58" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="10"/>
       <c r="F58" s="1"/>
     </row>
-    <row r="59" spans="2:6">
+    <row r="59" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="10"/>
     </row>
-    <row r="60" spans="2:6" ht="16" customHeight="1">
+    <row r="60" spans="2:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="10"/>
     </row>
-    <row r="61" spans="2:6">
+    <row r="61" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="10"/>
     </row>
-    <row r="62" spans="2:6">
+    <row r="62" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
       <c r="E62" s="10"/>
     </row>
-    <row r="63" spans="2:6">
+    <row r="63" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" spans="2:6">
+    <row r="64" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="10"/>
     </row>
-    <row r="65" spans="2:8">
+    <row r="65" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="10"/>
     </row>
-    <row r="66" spans="2:8">
+    <row r="66" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="10"/>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="2:8">
+    <row r="68" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="10"/>
     </row>
-    <row r="69" spans="2:8">
+    <row r="69" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="10"/>
     </row>
-    <row r="70" spans="2:8">
+    <row r="70" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
       <c r="E70" s="10"/>
     </row>
-    <row r="71" spans="2:8">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
       <c r="E71" s="10"/>
     </row>
-    <row r="72" spans="2:8">
+    <row r="72" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="10"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="2:8">
+    <row r="73" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="10"/>
       <c r="H73" s="2"/>
     </row>
-    <row r="74" spans="2:8">
+    <row r="74" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="10"/>
       <c r="H74" s="2"/>
     </row>
-    <row r="75" spans="2:8">
+    <row r="75" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="10"/>
     </row>
-    <row r="76" spans="2:8">
+    <row r="76" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="10"/>
     </row>
-    <row r="77" spans="2:8">
+    <row r="77" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="10"/>
     </row>
-    <row r="78" spans="2:8">
+    <row r="78" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="10"/>
     </row>
-    <row r="79" spans="2:8">
+    <row r="79" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="10"/>
     </row>
-    <row r="80" spans="2:8">
+    <row r="80" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="10"/>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="10"/>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="10"/>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="10"/>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="10"/>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="10"/>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="10"/>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="10"/>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="10"/>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="10"/>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="10"/>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="10"/>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="10"/>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="10"/>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="10"/>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="10"/>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="10"/>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="10"/>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="10"/>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="10"/>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="10"/>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="10"/>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="10"/>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="10"/>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="10"/>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="10"/>
     </row>
-    <row r="123" spans="8:8">
+    <row r="123" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H123" s="1"/>
     </row>
-    <row r="124" spans="8:8">
+    <row r="124" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H124" s="1"/>
     </row>
-    <row r="125" spans="8:8">
+    <row r="125" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H125" s="1"/>
     </row>
-    <row r="126" spans="8:8">
+    <row r="126" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H126" s="1"/>
     </row>
-    <row r="127" spans="8:8">
+    <row r="127" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H127" s="1"/>
     </row>
-    <row r="128" spans="8:8">
+    <row r="128" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H128" s="1"/>
     </row>
-    <row r="181" spans="2:5">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="10"/>
     </row>
-    <row r="182" spans="2:5">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="10"/>
     </row>
-    <row r="183" spans="2:5">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="10"/>
     </row>
-    <row r="184" spans="2:5">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="10"/>
     </row>
-    <row r="185" spans="2:5">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="10"/>
     </row>
-    <row r="186" spans="2:5">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="10"/>
     </row>
-    <row r="187" spans="2:5">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="10"/>
     </row>
-    <row r="188" spans="2:5">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="10"/>
     </row>
-    <row r="189" spans="2:5">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="10"/>
     </row>
-    <row r="190" spans="2:5">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="10"/>
     </row>
-    <row r="191" spans="2:5">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="10"/>
     </row>
-    <row r="192" spans="2:5">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="10"/>
     </row>
-    <row r="193" spans="2:5">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="10"/>
     </row>
-    <row r="194" spans="2:5">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="10"/>
     </row>
-    <row r="195" spans="2:5">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="10"/>
     </row>
-    <row r="196" spans="2:5">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="10"/>
     </row>
-    <row r="197" spans="2:5">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="10"/>
     </row>
-    <row r="198" spans="2:5">
+    <row r="198" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="10"/>
     </row>
-    <row r="199" spans="2:5">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="10"/>
     </row>
-    <row r="200" spans="2:5">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="10"/>
     </row>
-    <row r="201" spans="2:5">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
       <c r="E201" s="10"/>
     </row>
-    <row r="202" spans="2:5">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
       <c r="E202" s="10"/>
     </row>
-    <row r="203" spans="2:5">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
       <c r="E203" s="10"/>
     </row>
-    <row r="204" spans="2:5">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
       <c r="E204" s="10"/>
     </row>
-    <row r="205" spans="2:5">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
     </row>
-    <row r="206" spans="2:5">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
       <c r="E206" s="10"/>
     </row>
-    <row r="207" spans="2:5">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
       <c r="E207" s="10"/>
     </row>
-    <row r="208" spans="2:5">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
       <c r="E208" s="10"/>
     </row>
-    <row r="209" spans="2:5">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
       <c r="E209" s="10"/>
     </row>
-    <row r="210" spans="2:5">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
       <c r="E210" s="10"/>
     </row>
-    <row r="211" spans="2:5">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
       <c r="E211" s="10"/>
     </row>
-    <row r="212" spans="2:5">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
       <c r="E212" s="10"/>
     </row>
-    <row r="895" spans="6:6">
+    <row r="895" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F895" s="2"/>
     </row>
-    <row r="1031" spans="2:4">
+    <row r="1031" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1031" s="2"/>
       <c r="C1031" s="2"/>
       <c r="D1031" s="2"/>
     </row>
-    <row r="1032" spans="2:4">
+    <row r="1032" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1032" s="2"/>
       <c r="C1032" s="2"/>
       <c r="D1032" s="2"/>
     </row>
-    <row r="1157" spans="2:4">
+    <row r="1157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1157" s="2"/>
       <c r="C1157" s="2"/>
       <c r="D1157" s="2"/>
     </row>
-    <row r="1158" spans="2:4">
+    <row r="1158" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1158" s="2"/>
       <c r="C1158" s="2"/>
       <c r="D1158" s="2"/>
     </row>
-    <row r="1159" spans="2:4">
+    <row r="1159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1159" s="2"/>
       <c r="C1159" s="2"/>
       <c r="D1159" s="2"/>
     </row>
-    <row r="1160" spans="2:4">
+    <row r="1160" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1160" s="2"/>
       <c r="C1160" s="2"/>
       <c r="D1160" s="2"/>
     </row>
-    <row r="1161" spans="2:4">
+    <row r="1161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1161" s="2"/>
       <c r="C1161" s="2"/>
       <c r="D1161" s="2"/>
     </row>
-    <row r="1162" spans="2:4">
+    <row r="1162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1162" s="2"/>
       <c r="C1162" s="2"/>
       <c r="D1162" s="2"/>
     </row>
-    <row r="1207" spans="2:7">
+    <row r="1207" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F1207" s="2"/>
       <c r="G1207" s="2"/>
     </row>
-    <row r="1208" spans="2:7">
+    <row r="1208" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F1208" s="2"/>
       <c r="G1208" s="2"/>
     </row>
-    <row r="1209" spans="2:7">
+    <row r="1209" spans="2:7" x14ac:dyDescent="0.2">
       <c r="F1209" s="2"/>
       <c r="G1209" s="2"/>
     </row>
-    <row r="1211" spans="2:7">
+    <row r="1211" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1211" s="2"/>
       <c r="C1211" s="2"/>
       <c r="D1211" s="2"/>
     </row>
-    <row r="1212" spans="2:7">
+    <row r="1212" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1212" s="2"/>
       <c r="C1212" s="2"/>
       <c r="D1212" s="2"/>
     </row>
-    <row r="1213" spans="2:7">
+    <row r="1213" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1213" s="2"/>
       <c r="C1213" s="2"/>
       <c r="D1213" s="2"/>
     </row>
-    <row r="1214" spans="2:7">
+    <row r="1214" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1214" s="2"/>
       <c r="C1214" s="2"/>
       <c r="D1214" s="2"/>
     </row>
-    <row r="1215" spans="2:7">
+    <row r="1215" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B1215" s="2"/>
       <c r="C1215" s="2"/>
       <c r="D1215" s="2"/>
     </row>
-    <row r="1234" spans="2:4">
+    <row r="1234" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1234" s="2"/>
       <c r="C1234" s="2"/>
       <c r="D1234" s="2"/>
     </row>
-    <row r="1235" spans="2:4">
+    <row r="1235" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1235" s="2"/>
       <c r="C1235" s="2"/>
       <c r="D1235" s="2"/>
     </row>
-    <row r="1236" spans="2:4">
+    <row r="1236" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1236" s="2"/>
       <c r="C1236" s="2"/>
       <c r="D1236" s="2"/>
     </row>
-    <row r="1237" spans="2:4">
+    <row r="1237" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1237" s="2"/>
       <c r="C1237" s="2"/>
       <c r="D1237" s="2"/>
     </row>
-    <row r="1238" spans="2:4">
+    <row r="1238" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1238" s="2"/>
       <c r="C1238" s="2"/>
       <c r="D1238" s="2"/>
     </row>
-    <row r="1239" spans="2:4">
+    <row r="1239" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1239" s="2"/>
       <c r="C1239" s="2"/>
       <c r="D1239" s="2"/>
     </row>
-    <row r="1240" spans="2:4">
+    <row r="1240" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1240" s="2"/>
       <c r="C1240" s="2"/>
       <c r="D1240" s="2"/>
     </row>
-    <row r="1242" spans="2:4">
+    <row r="1242" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1242" s="2"/>
       <c r="C1242" s="2"/>
       <c r="D1242" s="2"/>
     </row>
-    <row r="1243" spans="2:4">
+    <row r="1243" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1243" s="2"/>
       <c r="C1243" s="2"/>
       <c r="D1243" s="2"/>
     </row>
-    <row r="1244" spans="2:4">
+    <row r="1244" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1244" s="2"/>
       <c r="C1244" s="2"/>
       <c r="D1244" s="2"/>
     </row>
-    <row r="1245" spans="2:4">
+    <row r="1245" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1245" s="2"/>
       <c r="C1245" s="2"/>
       <c r="D1245" s="2"/>
     </row>
-    <row r="1246" spans="2:4">
+    <row r="1246" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1246" s="2"/>
       <c r="C1246" s="2"/>
       <c r="D1246" s="2"/>
     </row>
-    <row r="1247" spans="2:4">
+    <row r="1247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1247" s="2"/>
       <c r="C1247" s="2"/>
       <c r="D1247" s="2"/>
     </row>
-    <row r="1299" spans="2:4">
+    <row r="1299" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1299" s="2"/>
       <c r="C1299" s="2"/>
       <c r="D1299" s="2"/>
     </row>
-    <row r="1300" spans="2:4">
+    <row r="1300" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1300" s="2"/>
       <c r="C1300" s="2"/>
       <c r="D1300" s="2"/>
     </row>
-    <row r="1301" spans="2:4">
+    <row r="1301" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1301" s="2"/>
       <c r="C1301" s="2"/>
       <c r="D1301" s="2"/>
     </row>
-    <row r="1302" spans="2:4">
+    <row r="1302" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1302" s="2"/>
       <c r="C1302" s="2"/>
       <c r="D1302" s="2"/>
     </row>
-    <row r="1304" spans="2:4">
+    <row r="1304" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1304" s="2"/>
       <c r="C1304" s="2"/>
       <c r="D1304" s="2"/>
     </row>
-    <row r="1305" spans="2:4">
+    <row r="1305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1305" s="2"/>
       <c r="C1305" s="2"/>
       <c r="D1305" s="2"/>
     </row>
-    <row r="1306" spans="2:4">
+    <row r="1306" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1306" s="2"/>
       <c r="C1306" s="2"/>
       <c r="D1306" s="2"/>
     </row>
-    <row r="1307" spans="2:4">
+    <row r="1307" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1307" s="2"/>
       <c r="C1307" s="2"/>
       <c r="D1307" s="2"/>
     </row>
-    <row r="1342" spans="2:4">
+    <row r="1342" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1342" s="2"/>
       <c r="C1342" s="2"/>
       <c r="D1342" s="2"/>
     </row>
-    <row r="1343" spans="2:4">
+    <row r="1343" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1343" s="2"/>
       <c r="C1343" s="2"/>
       <c r="D1343" s="2"/>
     </row>
-    <row r="1344" spans="2:4">
+    <row r="1344" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1344" s="2"/>
       <c r="C1344" s="2"/>
       <c r="D1344" s="2"/>
     </row>
-    <row r="1345" spans="2:4">
+    <row r="1345" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1345" s="2"/>
       <c r="C1345" s="2"/>
       <c r="D1345" s="2"/>
     </row>
-    <row r="1346" spans="2:4">
+    <row r="1346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1346" s="2"/>
       <c r="C1346" s="2"/>
       <c r="D1346" s="2"/>
     </row>
-    <row r="1347" spans="2:4">
+    <row r="1347" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1347" s="2"/>
       <c r="C1347" s="2"/>
       <c r="D1347" s="2"/>
     </row>
-    <row r="1389" spans="5:7">
+    <row r="1389" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F1389" s="2"/>
       <c r="G1389" s="2"/>
     </row>
-    <row r="1390" spans="5:7">
+    <row r="1390" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E1390" s="11"/>
       <c r="F1390" s="2"/>
       <c r="G1390" s="2"/>
     </row>
-    <row r="1391" spans="5:7">
+    <row r="1391" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E1391" s="11"/>
       <c r="F1391" s="2"/>
       <c r="G1391" s="2"/>
     </row>
-    <row r="1392" spans="5:7">
+    <row r="1392" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E1392" s="11"/>
       <c r="F1392" s="2"/>
       <c r="G1392" s="2"/>
     </row>
-    <row r="1393" spans="6:7">
+    <row r="1393" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F1393" s="2"/>
       <c r="G1393" s="2"/>
     </row>
-    <row r="1456" spans="2:4">
+    <row r="1456" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1456" s="2"/>
       <c r="C1456" s="2"/>
       <c r="D1456" s="2"/>
     </row>
-    <row r="1457" spans="2:4">
+    <row r="1457" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1457" s="2"/>
       <c r="C1457" s="2"/>
       <c r="D1457" s="2"/>
     </row>
-    <row r="1458" spans="2:4">
+    <row r="1458" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1458" s="2"/>
       <c r="C1458" s="2"/>
       <c r="D1458" s="2"/>
     </row>
-    <row r="1459" spans="2:4">
+    <row r="1459" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B1459" s="2"/>
       <c r="C1459" s="2"/>
       <c r="D1459" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A2:H45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
     <sortCondition ref="C2:C45"/>
     <sortCondition ref="A2:A45"/>
     <sortCondition ref="F2:F45"/>
@@ -5685,16 +5791,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5708,7 +5814,7 @@
         <v>2920</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -5722,7 +5828,7 @@
         <v>3302</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
